--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3180.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3180.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228128200730304</v>
+        <v>1.016169548034668</v>
       </c>
       <c r="B1">
-        <v>2.147263172592984</v>
+        <v>2.035089731216431</v>
       </c>
       <c r="C1">
-        <v>7.172248369735595</v>
+        <v>3.685343265533447</v>
       </c>
       <c r="D1">
-        <v>3.688785558613945</v>
+        <v>1.910654187202454</v>
       </c>
       <c r="E1">
-        <v>1.38761992562872</v>
+        <v>0.398711770772934</v>
       </c>
     </row>
   </sheetData>
